--- a/report/PTBCTC-vne.xlsx
+++ b/report/PTBCTC-vne.xlsx
@@ -7,14 +7,15 @@
   <sheets>
     <sheet name="CSTC" sheetId="1" r:id="rId1"/>
     <sheet name="CDKT" sheetId="2" r:id="rId2"/>
-    <sheet name="KQKD" sheetId="3" r:id="rId3"/>
-    <sheet name="LCTT" sheetId="4" r:id="rId4"/>
+    <sheet name="PT - SKTC" sheetId="3" r:id="rId3"/>
+    <sheet name="KQKD" sheetId="4" r:id="rId4"/>
+    <sheet name="LCTT" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>Quý 1/2012</t>
   </si>
@@ -704,6 +705,33 @@
   </si>
   <si>
     <t>TỔNG CỘNG NGUỒN VỐN</t>
+  </si>
+  <si>
+    <t>Sức khoẻ tài chính</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>VCSH</t>
+  </si>
+  <si>
+    <t>Vốn đầu tư CSH</t>
+  </si>
+  <si>
+    <t>Nợ phải trả</t>
+  </si>
+  <si>
+    <t>Nợ ngắn hạn</t>
+  </si>
+  <si>
+    <t>Nợ dài hạn</t>
+  </si>
+  <si>
+    <t>Nợ vay ngắn hạn</t>
+  </si>
+  <si>
+    <t>Nợ vay dài hạn</t>
   </si>
   <si>
     <t>1. Doanh thu bán hàng và cung cấp dịch vụ </t>
@@ -23283,6 +23311,885 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
+  <dimension ref="A1:AI14"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>607114</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>640470</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>644748</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>689255</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>689102</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>681888</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>681888</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>651320</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>651520</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>673347</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>687627</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>687627</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>684991</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>596626</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>732358</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>765030</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>765030</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>822519</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>850061</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>866963</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>1020861</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>1020861</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>962535</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>973333</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>956997</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>982703</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>982703</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>979385</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>1045231</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>1047737</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>936769</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>936769</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>942552</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>1043256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>637211</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>823575</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>823575</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>823575</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>823575</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>823575</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>904330</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>904330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1131268</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1221799</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1180396</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1213717</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1038465</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1102019</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1102019</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1200286</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1308748</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1217660</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1250948</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>1250948</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1029832</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1063963</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>912062</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>814114</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>814114</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>671622</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>742694</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>792300</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>849159</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>849159</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>752874</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>711451</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>684691</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>553077</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>553077</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>649525</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>676404</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>566416</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>621016</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>621016</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>739784</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>832416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>398757</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>548126</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>509653</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>546389</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>525610</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>593670</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>593670</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>685975</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>800132</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>712102</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>861365</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>861365</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>898258</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>941684</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>797891</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>585352</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>585352</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>459660</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>532729</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>614470</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>688110</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>688110</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>748343</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>706779</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>658305</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>535825</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>535825</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>631781</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>659105</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>550186</v>
+      </c>
+      <c r="AF10" s="1" t="n">
+        <v>605040</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>605040</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>723661</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>829854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>732510</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>673672</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>670744</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>667328</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>512855</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>508349</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>508349</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>514311</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>508615</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>505557</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>389582</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>389582</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>131574</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>122279</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>114171</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>228762</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>228762</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>211963</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>209965</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>177830</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>161049</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>161049</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>4531</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>4671</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>26386</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>17252</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>17252</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>17743</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>17299</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>16230</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>15976</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>15976</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>16123</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>92367</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>100427</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>113638</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>82980</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>111902</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>116084</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>116084</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>158186</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>232552</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>213433</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>232643</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>232643</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>422606</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>422051</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>320749</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>222693</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>222693</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>183855</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>196490</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>229392</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>284029</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>284029</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>421539</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>382637</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>331984</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>163705</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>163705</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>218545</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>230507</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>190053</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>192261</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>192261</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>285086</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>360983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>732384</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>673267</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>670465</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>667042</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>512614</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>508090</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>508090</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>514311</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>504579</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>501427</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>385350</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>385350</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>131234</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>122279</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>113831</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>228422</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>228422</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>211623</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>209965</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>177490</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>155709</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>155709</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>4531</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>4671</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>4295</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>2950</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>2950</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>3694</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>3303</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>3181</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>2973</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>2973</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
@@ -23392,7 +24299,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>148169</v>
@@ -23413,7 +24320,7 @@
         <v>205785</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>108501</v>
@@ -23428,7 +24335,7 @@
         <v>439340</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>56618</v>
@@ -23443,7 +24350,7 @@
         <v>424002</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>175947</v>
@@ -23458,7 +24365,7 @@
         <v>286354</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>175221</v>
@@ -23473,7 +24380,7 @@
         <v>281508</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AC2" s="1" t="n">
         <v>137278</v>
@@ -23488,7 +24395,7 @@
         <v>254459</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AH2" s="1" t="n">
         <v>185865</v>
@@ -23499,7 +24406,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>40</v>
@@ -23520,7 +24427,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>24</v>
@@ -23535,7 +24442,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>96</v>
@@ -23550,7 +24457,7 @@
         <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>15</v>
@@ -23565,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>0</v>
@@ -23606,7 +24513,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>148129</v>
@@ -23627,7 +24534,7 @@
         <v>205760</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>108477</v>
@@ -23642,7 +24549,7 @@
         <v>439319</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>56523</v>
@@ -23657,7 +24564,7 @@
         <v>423975</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>175932</v>
@@ -23672,7 +24579,7 @@
         <v>286354</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>175221</v>
@@ -23687,7 +24594,7 @@
         <v>281508</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AC4" s="1" t="n">
         <v>137278</v>
@@ -23702,7 +24609,7 @@
         <v>254459</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AH4" s="1" t="n">
         <v>185865</v>
@@ -23713,7 +24620,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>114953</v>
@@ -23734,7 +24641,7 @@
         <v>175393</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>90283</v>
@@ -23749,7 +24656,7 @@
         <v>350630</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>46098</v>
@@ -23764,7 +24671,7 @@
         <v>283131</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>139533</v>
@@ -23779,7 +24686,7 @@
         <v>241328</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="X5" s="1" t="n">
         <v>171663</v>
@@ -23794,7 +24701,7 @@
         <v>223563</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AC5" s="1" t="n">
         <v>113761</v>
@@ -23809,7 +24716,7 @@
         <v>246562</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>165772</v>
@@ -23820,7 +24727,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>33176</v>
@@ -23841,7 +24748,7 @@
         <v>30367</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>18194</v>
@@ -23856,7 +24763,7 @@
         <v>88689</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>10425</v>
@@ -23871,7 +24778,7 @@
         <v>140843</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>36400</v>
@@ -23886,7 +24793,7 @@
         <v>45026</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="X6" s="1" t="n">
         <v>3559</v>
@@ -23901,7 +24808,7 @@
         <v>57946</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AC6" s="1" t="n">
         <v>23517</v>
@@ -23916,7 +24823,7 @@
         <v>7897</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>20093</v>
@@ -23927,7 +24834,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5407</v>
@@ -23948,7 +24855,7 @@
         <v>554</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>356</v>
@@ -23963,7 +24870,7 @@
         <v>16661</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>3958</v>
@@ -23978,7 +24885,7 @@
         <v>5022</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>3793</v>
@@ -23993,7 +24900,7 @@
         <v>4395</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="X7" s="1" t="n">
         <v>2085</v>
@@ -24008,7 +24915,7 @@
         <v>356</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AC7" s="1" t="n">
         <v>5588</v>
@@ -24023,7 +24930,7 @@
         <v>2965</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>2649</v>
@@ -24034,7 +24941,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>18353</v>
@@ -24055,7 +24962,7 @@
         <v>26167</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>13786</v>
@@ -24070,7 +24977,7 @@
         <v>27672</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>10140</v>
@@ -24085,7 +24992,7 @@
         <v>10560</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>2140</v>
@@ -24100,7 +25007,7 @@
         <v>2683</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="X8" s="1" t="n">
         <v>7506</v>
@@ -24115,7 +25022,7 @@
         <v>4843</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AC8" s="1" t="n">
         <v>3816</v>
@@ -24130,7 +25037,7 @@
         <v>3973</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>4398</v>
@@ -24141,7 +25048,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>16767</v>
@@ -24162,7 +25069,7 @@
         <v>27213</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>15349</v>
@@ -24177,7 +25084,7 @@
         <v>28520</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>13724</v>
@@ -24192,7 +25099,7 @@
         <v>1284</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>7817</v>
@@ -24207,7 +25114,7 @@
         <v>7309</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="X9" s="1" t="n">
         <v>6391</v>
@@ -24222,7 +25129,7 @@
         <v>7357</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AC9" s="1" t="n">
         <v>3331</v>
@@ -24237,7 +25144,7 @@
         <v>3699</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>3898</v>
@@ -24248,7 +25155,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -24314,7 +25221,7 @@
         <v>-1308</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="X10" s="1" t="n">
         <v>303</v>
@@ -24329,7 +25236,7 @@
         <v>770</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AC10" s="1" t="n">
         <v>270</v>
@@ -24344,7 +25251,7 @@
         <v>77</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>14</v>
@@ -24355,7 +25262,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>603</v>
@@ -24376,7 +25283,7 @@
         <v>291</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>422</v>
@@ -24391,7 +25298,7 @@
         <v>200</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>269</v>
@@ -24406,7 +25313,7 @@
         <v>1003</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>677</v>
@@ -24421,7 +25328,7 @@
         <v>584</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="X11" s="1" t="n">
         <v>1632</v>
@@ -24436,7 +25343,7 @@
         <v>1219</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AC11" s="1" t="n">
         <v>462</v>
@@ -24451,7 +25358,7 @@
         <v>967</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>391</v>
@@ -24462,7 +25369,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>8613</v>
@@ -24483,7 +25390,7 @@
         <v>12949</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>9082</v>
@@ -24498,7 +25405,7 @@
         <v>60465</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>9724</v>
@@ -24513,7 +25420,7 @@
         <v>41254</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>14498</v>
@@ -24528,7 +25435,7 @@
         <v>18924</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="X12" s="1" t="n">
         <v>11495</v>
@@ -24543,7 +25450,7 @@
         <v>20288</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AC12" s="1" t="n">
         <v>13703</v>
@@ -24558,7 +25465,7 @@
         <v>18341</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>11418</v>
@@ -24569,7 +25476,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11013</v>
@@ -24590,7 +25497,7 @@
         <v>-8485</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>-4740</v>
@@ -24605,7 +25512,7 @@
         <v>17013</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>-5749</v>
@@ -24620,7 +25527,7 @@
         <v>93048</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>23107</v>
@@ -24635,7 +25542,7 @@
         <v>25923</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="X13" s="1" t="n">
         <v>-14687</v>
@@ -24650,7 +25557,7 @@
         <v>32723</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AC13" s="1" t="n">
         <v>11395</v>
@@ -24665,7 +25572,7 @@
         <v>-12343</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>6549</v>
@@ -24676,7 +25583,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>633</v>
@@ -24697,7 +25604,7 @@
         <v>1361</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>425</v>
@@ -24712,7 +25619,7 @@
         <v>1109</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>928</v>
@@ -24727,7 +25634,7 @@
         <v>4815</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>1027</v>
@@ -24742,7 +25649,7 @@
         <v>6065</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X14" s="1" t="n">
         <v>2514</v>
@@ -24757,7 +25664,7 @@
         <v>2682</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AC14" s="1" t="n">
         <v>6396</v>
@@ -24772,7 +25679,7 @@
         <v>2296</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>1292</v>
@@ -24783,7 +25690,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>914</v>
@@ -24804,7 +25711,7 @@
         <v>271</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>260</v>
@@ -24819,7 +25726,7 @@
         <v>2074</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>5577</v>
@@ -24834,7 +25741,7 @@
         <v>53021</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="S15" s="1" t="n">
         <v>834</v>
@@ -24849,7 +25756,7 @@
         <v>1013</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="X15" s="1" t="n">
         <v>420</v>
@@ -24864,7 +25771,7 @@
         <v>422</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AC15" s="1" t="n">
         <v>10985</v>
@@ -24879,7 +25786,7 @@
         <v>909</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>575</v>
@@ -24890,7 +25797,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>-281</v>
@@ -24911,7 +25818,7 @@
         <v>1090</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>164</v>
@@ -24926,7 +25833,7 @@
         <v>-965</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>-4649</v>
@@ -24941,7 +25848,7 @@
         <v>-48207</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="S16" s="1" t="n">
         <v>193</v>
@@ -24956,7 +25863,7 @@
         <v>5052</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="X16" s="1" t="n">
         <v>2094</v>
@@ -24971,7 +25878,7 @@
         <v>2260</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AC16" s="1" t="n">
         <v>-4589</v>
@@ -24986,7 +25893,7 @@
         <v>1387</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>717</v>
@@ -24997,7 +25904,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>-3419</v>
@@ -25018,7 +25925,7 @@
         <v>347</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>127</v>
@@ -25033,7 +25940,7 @@
         <v>-9233</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>736</v>
@@ -25048,7 +25955,7 @@
         <v>3657</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="S17" s="1" t="n">
         <v>0</v>
@@ -25104,7 +26011,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>7313</v>
@@ -25125,7 +26032,7 @@
         <v>-7048</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>-4449</v>
@@ -25140,7 +26047,7 @@
         <v>6815</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>-9663</v>
@@ -25155,7 +26062,7 @@
         <v>48499</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="S18" s="1" t="n">
         <v>23300</v>
@@ -25170,7 +26077,7 @@
         <v>30975</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="X18" s="1" t="n">
         <v>-12593</v>
@@ -25185,7 +26092,7 @@
         <v>34983</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AC18" s="1" t="n">
         <v>6805</v>
@@ -25200,7 +26107,7 @@
         <v>-10956</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>7266</v>
@@ -25211,7 +26118,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>396</v>
@@ -25232,7 +26139,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>217</v>
@@ -25247,7 +26154,7 @@
         <v>6091</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>197</v>
@@ -25262,7 +26169,7 @@
         <v>10309</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="S19" s="1" t="n">
         <v>5438</v>
@@ -25277,7 +26184,7 @@
         <v>7565</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>5290</v>
@@ -25292,7 +26199,7 @@
         <v>2852</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AC19" s="1" t="n">
         <v>2981</v>
@@ -25307,7 +26214,7 @@
         <v>883</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>1746</v>
@@ -25318,7 +26225,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>-398</v>
@@ -25354,7 +26261,7 @@
         <v>-66</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>-85</v>
@@ -25369,7 +26276,7 @@
         <v>-622</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="S20" s="1" t="n">
         <v>12</v>
@@ -25384,7 +26291,7 @@
         <v>-410</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="X20" s="1" t="n">
         <v>437</v>
@@ -25399,7 +26306,7 @@
         <v>-6038</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AC20" s="1" t="n">
         <v>-264</v>
@@ -25414,7 +26321,7 @@
         <v>-45</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>35</v>
@@ -25425,7 +26332,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>7314</v>
@@ -25446,7 +26353,7 @@
         <v>-7138</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>-4618</v>
@@ -25461,7 +26368,7 @@
         <v>790</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>-9776</v>
@@ -25476,7 +26383,7 @@
         <v>38812</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="S21" s="1" t="n">
         <v>17849</v>
@@ -25491,7 +26398,7 @@
         <v>23820</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>-18320</v>
@@ -25506,7 +26413,7 @@
         <v>38170</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AC21" s="1" t="n">
         <v>4088</v>
@@ -25521,7 +26428,7 @@
         <v>-11794</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>5485</v>
@@ -25532,7 +26439,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1317</v>
@@ -25553,7 +26460,7 @@
         <v>-631</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>-594</v>
@@ -25568,7 +26475,7 @@
         <v>46</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>-2</v>
@@ -25583,7 +26490,7 @@
         <v>5011</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="S22" s="1" t="n">
         <v>-510</v>
@@ -25598,7 +26505,7 @@
         <v>1923</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>-2933</v>
@@ -25613,7 +26520,7 @@
         <v>3018</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="AC22" s="1" t="n">
         <v>353</v>
@@ -25628,7 +26535,7 @@
         <v>858</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>-327</v>
@@ -25639,7 +26546,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>5997</v>
@@ -25660,7 +26567,7 @@
         <v>-6508</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>-4024</v>
@@ -25675,7 +26582,7 @@
         <v>745</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>-9773</v>
@@ -25690,7 +26597,7 @@
         <v>33801</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="S23" s="1" t="n">
         <v>18359</v>
@@ -25705,7 +26612,7 @@
         <v>21897</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="X23" s="1" t="n">
         <v>-15386</v>
@@ -25720,7 +26627,7 @@
         <v>35152</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AC23" s="1" t="n">
         <v>3735</v>
@@ -25735,7 +26642,7 @@
         <v>-12651</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>5812</v>
@@ -25746,7 +26653,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>96.75</v>
@@ -25767,7 +26674,7 @@
         <v>-105.32</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>65.12</v>
@@ -25782,7 +26689,7 @@
         <v>1205</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>-157.71</v>
@@ -25797,7 +26704,7 @@
         <v>545.44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>296.25</v>
@@ -25812,7 +26719,7 @@
         <v>271.65</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="X24" s="1" t="n">
         <v>-248.28</v>
@@ -25827,7 +26734,7 @@
         <v>397</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AC24" s="1" t="n">
         <v>42</v>
@@ -25842,7 +26749,7 @@
         <v>-154.41</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>70.93</v>
@@ -25853,7 +26760,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
@@ -25934,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AC25" s="1" t="n">
         <v>0</v>
@@ -25949,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>0</v>
@@ -25963,7 +26870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
   <dimension ref="A1:AG1"/>
